--- a/weather.xlsx
+++ b/weather.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,16 +420,16 @@
         <v>42005</v>
       </c>
       <c r="B2">
-        <v>17100</v>
+        <v>11940</v>
       </c>
       <c r="C2">
-        <v>-6.1</v>
+        <v>-7.4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.3</v>
+        <v>43.1</v>
       </c>
       <c r="F2">
         <v>3.5</v>
@@ -440,19 +440,19 @@
         <v>42009</v>
       </c>
       <c r="B3">
-        <v>17100</v>
+        <v>8400</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>52.4</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F3">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,19 +460,19 @@
         <v>42012</v>
       </c>
       <c r="B4">
-        <v>17100</v>
+        <v>13200</v>
       </c>
       <c r="C4">
-        <v>-3.4</v>
+        <v>-4.9</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.9</v>
+        <v>47.8</v>
       </c>
       <c r="F4">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,19 +480,19 @@
         <v>42016</v>
       </c>
       <c r="B5">
-        <v>15000</v>
+        <v>13200</v>
       </c>
       <c r="C5">
-        <v>-1.2</v>
+        <v>-2.5</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19.3</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,19 +500,19 @@
         <v>42019</v>
       </c>
       <c r="B6">
-        <v>17100</v>
+        <v>13200</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35.4</v>
+        <v>55.5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,19 +520,19 @@
         <v>42023</v>
       </c>
       <c r="B7">
-        <v>17100</v>
+        <v>13200</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>47.2</v>
+        <v>70.3</v>
       </c>
       <c r="F7">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,19 +540,19 @@
         <v>42026</v>
       </c>
       <c r="B8">
-        <v>17100</v>
+        <v>13200</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>41.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F8">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,19 +560,19 @@
         <v>42030</v>
       </c>
       <c r="B9">
-        <v>17100</v>
+        <v>12300</v>
       </c>
       <c r="C9">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>63.4</v>
+        <v>86.7</v>
       </c>
       <c r="F9">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,19 +580,19 @@
         <v>42037</v>
       </c>
       <c r="B10">
-        <v>17100</v>
+        <v>12780</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>27.4</v>
+        <v>49.3</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,19 +600,19 @@
         <v>42040</v>
       </c>
       <c r="B11">
-        <v>17100</v>
+        <v>13200</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>35.3</v>
+        <v>60.3</v>
       </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,19 +620,19 @@
         <v>42044</v>
       </c>
       <c r="B12">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="C12">
-        <v>-4.4</v>
+        <v>-5.7</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>34.5</v>
+        <v>54.4</v>
       </c>
       <c r="F12">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,19 +640,19 @@
         <v>42047</v>
       </c>
       <c r="B13">
-        <v>21480</v>
+        <v>14700</v>
       </c>
       <c r="C13">
-        <v>-0.4</v>
+        <v>-1.7</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.4</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,19 +660,19 @@
         <v>42051</v>
       </c>
       <c r="B14">
-        <v>21480</v>
+        <v>13920</v>
       </c>
       <c r="C14">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="E14">
-        <v>69.3</v>
+        <v>85.2</v>
       </c>
       <c r="F14">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,19 +680,19 @@
         <v>42058</v>
       </c>
       <c r="B15">
-        <v>21480</v>
+        <v>13920</v>
       </c>
       <c r="C15">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>42.8</v>
+        <v>62</v>
       </c>
       <c r="F15">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,19 +700,19 @@
         <v>42065</v>
       </c>
       <c r="B16">
-        <v>15000</v>
+        <v>7200</v>
       </c>
       <c r="C16">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>32.5</v>
+        <v>49.9</v>
       </c>
       <c r="F16">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,19 +720,19 @@
         <v>42068</v>
       </c>
       <c r="B17">
-        <v>15000</v>
+        <v>13920</v>
       </c>
       <c r="C17">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.8</v>
+        <v>47.8</v>
       </c>
       <c r="F17">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,19 +740,19 @@
         <v>42072</v>
       </c>
       <c r="B18">
-        <v>15000</v>
+        <v>12360</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>33.5</v>
+        <v>46.9</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -760,19 +760,19 @@
         <v>42075</v>
       </c>
       <c r="B19">
-        <v>15000</v>
+        <v>13080</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.6</v>
+        <v>45.5</v>
       </c>
       <c r="F19">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -780,19 +780,19 @@
         <v>42079</v>
       </c>
       <c r="B20">
-        <v>14880</v>
+        <v>13080</v>
       </c>
       <c r="C20">
-        <v>10.2</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>47</v>
+        <v>49.3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -800,16 +800,16 @@
         <v>42082</v>
       </c>
       <c r="B21">
-        <v>14880</v>
+        <v>13080</v>
       </c>
       <c r="C21">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>52.1</v>
+        <v>58.7</v>
       </c>
       <c r="F21">
         <v>1.1</v>
@@ -820,19 +820,19 @@
         <v>42086</v>
       </c>
       <c r="B22">
-        <v>21480</v>
+        <v>13080</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.3</v>
+        <v>28.3</v>
       </c>
       <c r="F22">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,19 +840,19 @@
         <v>42089</v>
       </c>
       <c r="B23">
-        <v>21480</v>
+        <v>6960</v>
       </c>
       <c r="C23">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>50.4</v>
+        <v>51.5</v>
       </c>
       <c r="F23">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -860,19 +860,19 @@
         <v>42096</v>
       </c>
       <c r="B24">
-        <v>15000</v>
+        <v>8700</v>
       </c>
       <c r="C24">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="E24">
-        <v>65.5</v>
+        <v>69.5</v>
       </c>
       <c r="F24">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -880,19 +880,19 @@
         <v>42100</v>
       </c>
       <c r="B25">
-        <v>11880</v>
+        <v>14280</v>
       </c>
       <c r="C25">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>56.4</v>
+        <v>61.7</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -900,19 +900,19 @@
         <v>42103</v>
       </c>
       <c r="B26">
-        <v>11880</v>
+        <v>13860</v>
       </c>
       <c r="C26">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>45</v>
+        <v>48.2</v>
       </c>
       <c r="F26">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -920,19 +920,19 @@
         <v>42107</v>
       </c>
       <c r="B27">
-        <v>11880</v>
+        <v>13860</v>
       </c>
       <c r="C27">
-        <v>12.9</v>
+        <v>12.1</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E27">
-        <v>50.1</v>
+        <v>52.5</v>
       </c>
       <c r="F27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -940,19 +940,19 @@
         <v>42110</v>
       </c>
       <c r="B28">
-        <v>15000</v>
+        <v>13860</v>
       </c>
       <c r="C28">
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>62.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F28">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -960,19 +960,19 @@
         <v>42114</v>
       </c>
       <c r="B29">
-        <v>13200</v>
+        <v>13860</v>
       </c>
       <c r="C29">
-        <v>13.3</v>
+        <v>12.5</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E29">
-        <v>71.90000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F29">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -980,19 +980,19 @@
         <v>42117</v>
       </c>
       <c r="B30">
-        <v>17400</v>
+        <v>14700</v>
       </c>
       <c r="C30">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>43</v>
+        <v>44.9</v>
       </c>
       <c r="F30">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1000,19 +1000,19 @@
         <v>42121</v>
       </c>
       <c r="B31">
-        <v>17400</v>
+        <v>14580</v>
       </c>
       <c r="C31">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>44.3</v>
+        <v>45.5</v>
       </c>
       <c r="F31">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1020,19 +1020,19 @@
         <v>42128</v>
       </c>
       <c r="B32">
-        <v>13200</v>
+        <v>11880</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="F32">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1040,19 +1040,19 @@
         <v>42131</v>
       </c>
       <c r="B33">
-        <v>13200</v>
+        <v>15900</v>
       </c>
       <c r="C33">
-        <v>17.6</v>
+        <v>16.7</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>41.6</v>
+        <v>36.7</v>
       </c>
       <c r="F33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1060,19 +1060,19 @@
         <v>42135</v>
       </c>
       <c r="B34">
-        <v>17880</v>
+        <v>12900</v>
       </c>
       <c r="C34">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="E34">
-        <v>59.9</v>
+        <v>61.3</v>
       </c>
       <c r="F34">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1080,19 +1080,19 @@
         <v>42138</v>
       </c>
       <c r="B35">
-        <v>17880</v>
+        <v>11880</v>
       </c>
       <c r="C35">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>64.2</v>
+        <v>65.7</v>
       </c>
       <c r="F35">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1100,19 +1100,19 @@
         <v>42142</v>
       </c>
       <c r="B36">
-        <v>18900</v>
+        <v>14160</v>
       </c>
       <c r="C36">
-        <v>19.1</v>
+        <v>18.5</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>51.9</v>
+        <v>50.2</v>
       </c>
       <c r="F36">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1120,19 +1120,19 @@
         <v>42145</v>
       </c>
       <c r="B37">
-        <v>18900</v>
+        <v>13020</v>
       </c>
       <c r="C37">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="F37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1140,16 +1140,16 @@
         <v>42149</v>
       </c>
       <c r="B38">
-        <v>18900</v>
+        <v>14820</v>
       </c>
       <c r="C38">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>55.8</v>
+        <v>54.5</v>
       </c>
       <c r="F38">
         <v>1.5</v>
@@ -1160,19 +1160,19 @@
         <v>42156</v>
       </c>
       <c r="B39">
-        <v>18900</v>
+        <v>13500</v>
       </c>
       <c r="C39">
-        <v>22.4</v>
+        <v>21.8</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>48.3</v>
+        <v>47.8</v>
       </c>
       <c r="F39">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1180,19 +1180,19 @@
         <v>42159</v>
       </c>
       <c r="B40">
-        <v>18900</v>
+        <v>13500</v>
       </c>
       <c r="C40">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>33.1</v>
+        <v>32.3</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1200,19 +1200,19 @@
         <v>42163</v>
       </c>
       <c r="B41">
-        <v>18900</v>
+        <v>12960</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>56.8</v>
+        <v>58.3</v>
       </c>
       <c r="F41">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1220,19 +1220,19 @@
         <v>42166</v>
       </c>
       <c r="B42">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="D42">
         <v>7.5</v>
       </c>
       <c r="E42">
-        <v>60.4</v>
+        <v>59</v>
       </c>
       <c r="F42">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1240,19 +1240,19 @@
         <v>42170</v>
       </c>
       <c r="B43">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>65.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1260,19 +1260,19 @@
         <v>42173</v>
       </c>
       <c r="B44">
-        <v>21000</v>
+        <v>14100</v>
       </c>
       <c r="C44">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>62.1</v>
+        <v>62.4</v>
       </c>
       <c r="F44">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1280,19 +1280,19 @@
         <v>42177</v>
       </c>
       <c r="B45">
-        <v>21000</v>
+        <v>15600</v>
       </c>
       <c r="C45">
-        <v>24.5</v>
+        <v>23.6</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>62.7</v>
+        <v>66.2</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1300,19 +1300,19 @@
         <v>42180</v>
       </c>
       <c r="B46">
-        <v>21000</v>
+        <v>14280</v>
       </c>
       <c r="C46">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="D46">
         <v>1.5</v>
       </c>
       <c r="E46">
-        <v>65.59999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="F46">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1320,19 +1320,19 @@
         <v>42187</v>
       </c>
       <c r="B47">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="C47">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F47">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1340,19 +1340,19 @@
         <v>42191</v>
       </c>
       <c r="B48">
-        <v>21000</v>
+        <v>8880</v>
       </c>
       <c r="C48">
-        <v>25.8</v>
+        <v>24.6</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>58.1</v>
+        <v>60.5</v>
       </c>
       <c r="F48">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1360,19 +1360,19 @@
         <v>42194</v>
       </c>
       <c r="B49">
-        <v>21000</v>
+        <v>11100</v>
       </c>
       <c r="C49">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>62.6</v>
+        <v>63.8</v>
       </c>
       <c r="F49">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1380,19 +1380,19 @@
         <v>42198</v>
       </c>
       <c r="B50">
-        <v>21000</v>
+        <v>13800</v>
       </c>
       <c r="C50">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="D50">
         <v>16</v>
       </c>
       <c r="E50">
-        <v>89.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="F50">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1400,19 +1400,19 @@
         <v>42201</v>
       </c>
       <c r="B51">
-        <v>21000</v>
+        <v>13800</v>
       </c>
       <c r="C51">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>53.2</v>
+        <v>55</v>
       </c>
       <c r="F51">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1420,19 +1420,19 @@
         <v>42205</v>
       </c>
       <c r="B52">
-        <v>21000</v>
+        <v>15480</v>
       </c>
       <c r="C52">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>71.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1440,19 +1440,19 @@
         <v>42208</v>
       </c>
       <c r="B53">
-        <v>27000</v>
+        <v>14520</v>
       </c>
       <c r="C53">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="E53">
-        <v>79.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F53">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1460,19 +1460,19 @@
         <v>42212</v>
       </c>
       <c r="B54">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="C54">
-        <v>26.5</v>
+        <v>25.6</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54">
-        <v>84.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="F54">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1480,19 +1480,19 @@
         <v>42219</v>
       </c>
       <c r="B55">
-        <v>21000</v>
+        <v>10800</v>
       </c>
       <c r="C55">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>76.5</v>
+        <v>74.7</v>
       </c>
       <c r="F55">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1500,19 +1500,19 @@
         <v>42222</v>
       </c>
       <c r="B56">
-        <v>21000</v>
+        <v>13170</v>
       </c>
       <c r="C56">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>65.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F56">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1520,19 +1520,19 @@
         <v>42226</v>
       </c>
       <c r="B57">
-        <v>21000</v>
+        <v>13920</v>
       </c>
       <c r="C57">
-        <v>30.6</v>
+        <v>28.3</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>59.5</v>
+        <v>69.8</v>
       </c>
       <c r="F57">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1540,19 +1540,19 @@
         <v>42229</v>
       </c>
       <c r="B58">
-        <v>21000</v>
+        <v>13920</v>
       </c>
       <c r="C58">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D58">
-        <v>29.5</v>
+        <v>1.5</v>
       </c>
       <c r="E58">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="F58">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1560,19 +1560,19 @@
         <v>42233</v>
       </c>
       <c r="B59">
-        <v>21000</v>
+        <v>14420</v>
       </c>
       <c r="C59">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>64.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F59">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>42236</v>
       </c>
       <c r="B60">
-        <v>21000</v>
+        <v>14420</v>
       </c>
       <c r="C60">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>73.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F60">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,19 +1600,19 @@
         <v>42240</v>
       </c>
       <c r="B61">
-        <v>21000</v>
+        <v>17720</v>
       </c>
       <c r="C61">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>63.1</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F61">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,39 +1620,39 @@
         <v>42243</v>
       </c>
       <c r="B62">
-        <v>21000</v>
+        <v>14220</v>
       </c>
       <c r="C62">
-        <v>25.5</v>
+        <v>24.6</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>61.5</v>
+        <v>64.8</v>
       </c>
       <c r="F62">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>42251</v>
+        <v>42250</v>
       </c>
       <c r="B63">
-        <v>19080</v>
+        <v>17340</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>24.2</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>68.90000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F63">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,19 +1660,19 @@
         <v>42254</v>
       </c>
       <c r="B64">
-        <v>19080</v>
+        <v>12000</v>
       </c>
       <c r="C64">
-        <v>23.9</v>
+        <v>22.8</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>53.5</v>
+        <v>56.6</v>
       </c>
       <c r="F64">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,19 +1680,19 @@
         <v>42257</v>
       </c>
       <c r="B65">
-        <v>16800</v>
+        <v>17340</v>
       </c>
       <c r="C65">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>61.7</v>
+        <v>64.2</v>
       </c>
       <c r="F65">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,19 +1700,19 @@
         <v>42261</v>
       </c>
       <c r="B66">
-        <v>16800</v>
+        <v>16740</v>
       </c>
       <c r="C66">
-        <v>23.2</v>
+        <v>22.3</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>63.4</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F66">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,19 +1720,19 @@
         <v>42264</v>
       </c>
       <c r="B67">
-        <v>21000</v>
+        <v>16740</v>
       </c>
       <c r="C67">
-        <v>22.5</v>
+        <v>21.6</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>49.3</v>
+        <v>50.6</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,19 +1740,19 @@
         <v>42268</v>
       </c>
       <c r="B68">
-        <v>21000</v>
+        <v>16080</v>
       </c>
       <c r="C68">
-        <v>23.7</v>
+        <v>22.7</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F68">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,19 +1760,19 @@
         <v>42278</v>
       </c>
       <c r="B69">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="D69">
-        <v>45.5</v>
+        <v>30</v>
       </c>
       <c r="E69">
-        <v>76.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="F69">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,19 +1780,19 @@
         <v>42282</v>
       </c>
       <c r="B70">
-        <v>21000</v>
+        <v>13200</v>
       </c>
       <c r="C70">
-        <v>19.5</v>
+        <v>18.2</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,19 +1800,19 @@
         <v>42285</v>
       </c>
       <c r="B71">
-        <v>18540</v>
+        <v>11880</v>
       </c>
       <c r="C71">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>64.5</v>
+        <v>65.3</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,19 +1820,19 @@
         <v>42289</v>
       </c>
       <c r="B72">
-        <v>11880</v>
+        <v>13920</v>
       </c>
       <c r="C72">
-        <v>14.1</v>
+        <v>12.8</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>59</v>
+        <v>60.4</v>
       </c>
       <c r="F72">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,19 +1840,19 @@
         <v>42292</v>
       </c>
       <c r="B73">
-        <v>18540</v>
+        <v>11880</v>
       </c>
       <c r="C73">
-        <v>19.1</v>
+        <v>18.1</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>63.1</v>
+        <v>62.9</v>
       </c>
       <c r="F73">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,19 +1860,19 @@
         <v>42296</v>
       </c>
       <c r="B74">
-        <v>11880</v>
+        <v>14360</v>
       </c>
       <c r="C74">
-        <v>19.2</v>
+        <v>18.1</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>67.5</v>
+        <v>71.7</v>
       </c>
       <c r="F74">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,19 +1880,19 @@
         <v>42299</v>
       </c>
       <c r="B75">
-        <v>11880</v>
+        <v>12540</v>
       </c>
       <c r="C75">
-        <v>18.7</v>
+        <v>17.8</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>69</v>
+        <v>70.2</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,19 +1900,19 @@
         <v>42303</v>
       </c>
       <c r="B76">
-        <v>18540</v>
+        <v>19680</v>
       </c>
       <c r="C76">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E76">
-        <v>63.9</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F76">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,19 +1920,19 @@
         <v>42310</v>
       </c>
       <c r="B77">
-        <v>16200</v>
+        <v>6900</v>
       </c>
       <c r="C77">
-        <v>12.3</v>
+        <v>10.9</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>60.6</v>
+        <v>63.5</v>
       </c>
       <c r="F77">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,19 +1940,19 @@
         <v>42313</v>
       </c>
       <c r="B78">
-        <v>15300</v>
+        <v>8100</v>
       </c>
       <c r="C78">
-        <v>14.6</v>
+        <v>13.4</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F78">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,19 +1960,19 @@
         <v>42317</v>
       </c>
       <c r="B79">
-        <v>15300</v>
+        <v>6480</v>
       </c>
       <c r="C79">
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
       <c r="D79">
         <v>4</v>
       </c>
       <c r="E79">
-        <v>85.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F79">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,19 +1980,19 @@
         <v>42320</v>
       </c>
       <c r="B80">
-        <v>15300</v>
+        <v>9000</v>
       </c>
       <c r="C80">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>65</v>
+        <v>64.2</v>
       </c>
       <c r="F80">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,19 +2000,19 @@
         <v>42324</v>
       </c>
       <c r="B81">
-        <v>15300</v>
+        <v>9000</v>
       </c>
       <c r="C81">
-        <v>13.7</v>
+        <v>12.9</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="E81">
-        <v>84.2</v>
+        <v>83.7</v>
       </c>
       <c r="F81">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,19 +2020,19 @@
         <v>42327</v>
       </c>
       <c r="B82">
-        <v>15300</v>
+        <v>9000</v>
       </c>
       <c r="C82">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>71.2</v>
+        <v>72.8</v>
       </c>
       <c r="F82">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,19 +2040,19 @@
         <v>42331</v>
       </c>
       <c r="B83">
-        <v>13680</v>
+        <v>15120</v>
       </c>
       <c r="C83">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="D83">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E83">
-        <v>79.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="F83">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,19 +2060,19 @@
         <v>42334</v>
       </c>
       <c r="B84">
-        <v>13680</v>
+        <v>17340</v>
       </c>
       <c r="C84">
-        <v>-0.6</v>
+        <v>-1.8</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>64.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F84">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2080,19 +2080,19 @@
         <v>42341</v>
       </c>
       <c r="B85">
-        <v>11880</v>
+        <v>12600</v>
       </c>
       <c r="C85">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2100,19 +2100,19 @@
         <v>42345</v>
       </c>
       <c r="B86">
-        <v>15300</v>
+        <v>12600</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>56.1</v>
+        <v>56.9</v>
       </c>
       <c r="F86">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2120,19 +2120,19 @@
         <v>42348</v>
       </c>
       <c r="B87">
-        <v>17400</v>
+        <v>13140</v>
       </c>
       <c r="C87">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>75.2</v>
+        <v>74.8</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2140,19 +2140,19 @@
         <v>42352</v>
       </c>
       <c r="B88">
-        <v>17400</v>
+        <v>13140</v>
       </c>
       <c r="C88">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="D88">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E88">
-        <v>74.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F88">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2160,19 +2160,19 @@
         <v>42355</v>
       </c>
       <c r="B89">
-        <v>17400</v>
+        <v>13200</v>
       </c>
       <c r="C89">
-        <v>-2.8</v>
+        <v>-3.9</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>43.6</v>
+        <v>46.7</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2180,19 +2180,19 @@
         <v>42359</v>
       </c>
       <c r="B90">
-        <v>23400</v>
+        <v>15240</v>
       </c>
       <c r="C90">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>72.2</v>
+      </c>
+      <c r="F90">
         <v>1.5</v>
-      </c>
-      <c r="E90">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="F90">
-        <v>1.3</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2200,19 +2200,19 @@
         <v>42362</v>
       </c>
       <c r="B91">
-        <v>23400</v>
+        <v>13200</v>
       </c>
       <c r="C91">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>66.3</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F91">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2220,19 +2220,19 @@
         <v>42366</v>
       </c>
       <c r="B92">
-        <v>23400</v>
+        <v>13500</v>
       </c>
       <c r="C92">
-        <v>-3.9</v>
+        <v>-5</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>42</v>
+        <v>41.3</v>
       </c>
       <c r="F92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2240,19 +2240,19 @@
         <v>42373</v>
       </c>
       <c r="B93">
-        <v>2980</v>
+        <v>9900</v>
       </c>
       <c r="C93">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>55.2</v>
+        <v>60.5</v>
       </c>
       <c r="F93">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2260,19 +2260,19 @@
         <v>42376</v>
       </c>
       <c r="B94">
-        <v>2980</v>
+        <v>16020</v>
       </c>
       <c r="C94">
-        <v>-1.4</v>
+        <v>-2.5</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>52.6</v>
+        <v>54.5</v>
       </c>
       <c r="F94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2280,16 +2280,16 @@
         <v>42380</v>
       </c>
       <c r="B95">
-        <v>2980</v>
+        <v>12540</v>
       </c>
       <c r="C95">
-        <v>-2.2</v>
+        <v>-3.1</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>43.4</v>
+        <v>42.8</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -2300,19 +2300,19 @@
         <v>42383</v>
       </c>
       <c r="B96">
-        <v>2980</v>
+        <v>10560</v>
       </c>
       <c r="C96">
-        <v>-2.1</v>
+        <v>-3.3</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>49.9</v>
+        <v>53.2</v>
       </c>
       <c r="F96">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2320,19 +2320,19 @@
         <v>42387</v>
       </c>
       <c r="B97">
-        <v>2980</v>
+        <v>12660</v>
       </c>
       <c r="C97">
-        <v>-3.9</v>
+        <v>-5.2</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>60.6</v>
+        <v>62.4</v>
       </c>
       <c r="F97">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2340,19 +2340,19 @@
         <v>42390</v>
       </c>
       <c r="B98">
-        <v>2980</v>
+        <v>11280</v>
       </c>
       <c r="C98">
-        <v>-5.5</v>
+        <v>-6.6</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>48.8</v>
+        <v>50.2</v>
       </c>
       <c r="F98">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2360,19 +2360,19 @@
         <v>42394</v>
       </c>
       <c r="B99">
-        <v>2980</v>
+        <v>11460</v>
       </c>
       <c r="C99">
-        <v>-7.8</v>
+        <v>-9.1</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>48.3</v>
+        <v>51.3</v>
       </c>
       <c r="F99">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2380,19 +2380,19 @@
         <v>42401</v>
       </c>
       <c r="B100">
-        <v>2980</v>
+        <v>11460</v>
       </c>
       <c r="C100">
-        <v>-4.5</v>
+        <v>-5.5</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="F100">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2400,19 +2400,19 @@
         <v>42404</v>
       </c>
       <c r="B101">
-        <v>2980</v>
+        <v>11880</v>
       </c>
       <c r="C101">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>56.6</v>
+        <v>56.2</v>
       </c>
       <c r="F101">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2420,19 +2420,19 @@
         <v>42411</v>
       </c>
       <c r="B102">
-        <v>2980</v>
+        <v>11880</v>
       </c>
       <c r="C102">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>31</v>
+        <v>28.4</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2440,19 +2440,19 @@
         <v>42415</v>
       </c>
       <c r="B103">
-        <v>2980</v>
+        <v>11220</v>
       </c>
       <c r="C103">
-        <v>-4.4</v>
+        <v>-5.5</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>52.3</v>
+        <v>51.6</v>
       </c>
       <c r="F103">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2460,16 +2460,16 @@
         <v>42418</v>
       </c>
       <c r="B104">
-        <v>2980</v>
+        <v>13500</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F104">
         <v>2.4</v>
@@ -2480,19 +2480,19 @@
         <v>42422</v>
       </c>
       <c r="B105">
-        <v>2980</v>
+        <v>10200</v>
       </c>
       <c r="C105">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>36.4</v>
+        <v>39</v>
       </c>
       <c r="F105">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2500,19 +2500,19 @@
         <v>42425</v>
       </c>
       <c r="B106">
-        <v>2980</v>
+        <v>9900</v>
       </c>
       <c r="C106">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>52.2</v>
+        <v>54.2</v>
       </c>
       <c r="F106">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2520,19 +2520,19 @@
         <v>42432</v>
       </c>
       <c r="B107">
-        <v>2980</v>
+        <v>7800</v>
       </c>
       <c r="C107">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>68.3</v>
+        <v>69.7</v>
       </c>
       <c r="F107">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2540,19 +2540,19 @@
         <v>42436</v>
       </c>
       <c r="B108">
-        <v>2980</v>
+        <v>6900</v>
       </c>
       <c r="C108">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>42</v>
+        <v>42.7</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2560,19 +2560,19 @@
         <v>42439</v>
       </c>
       <c r="B109">
-        <v>2980</v>
+        <v>11280</v>
       </c>
       <c r="C109">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>39.5</v>
+        <v>41.7</v>
       </c>
       <c r="F109">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2580,16 +2580,16 @@
         <v>42443</v>
       </c>
       <c r="B110">
-        <v>2980</v>
+        <v>11280</v>
       </c>
       <c r="C110">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>60.4</v>
+        <v>63.2</v>
       </c>
       <c r="F110">
         <v>1.7</v>
@@ -2600,19 +2600,19 @@
         <v>42446</v>
       </c>
       <c r="B111">
-        <v>2980</v>
+        <v>10080</v>
       </c>
       <c r="C111">
-        <v>10.2</v>
+        <v>9.1</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>47.8</v>
+        <v>44</v>
       </c>
       <c r="F111">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2620,19 +2620,19 @@
         <v>42450</v>
       </c>
       <c r="B112">
-        <v>2980</v>
+        <v>13080</v>
       </c>
       <c r="C112">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="F112">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2640,19 +2640,19 @@
         <v>42453</v>
       </c>
       <c r="B113">
-        <v>2980</v>
+        <v>15720</v>
       </c>
       <c r="C113">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>38.7</v>
+        <v>40.2</v>
       </c>
       <c r="F113">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2660,19 +2660,19 @@
         <v>42457</v>
       </c>
       <c r="B114">
-        <v>2980</v>
+        <v>13560</v>
       </c>
       <c r="C114">
-        <v>10.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>52.8</v>
+        <v>52.3</v>
       </c>
       <c r="F114">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2680,16 +2680,16 @@
         <v>42464</v>
       </c>
       <c r="B115">
-        <v>2980</v>
+        <v>11100</v>
       </c>
       <c r="C115">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>46.3</v>
+        <v>49.8</v>
       </c>
       <c r="F115">
         <v>1.2</v>
@@ -2700,19 +2700,19 @@
         <v>42467</v>
       </c>
       <c r="B116">
-        <v>1980</v>
+        <v>11100</v>
       </c>
       <c r="C116">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="D116">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>71.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="F116">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2720,19 +2720,19 @@
         <v>42471</v>
       </c>
       <c r="B117">
-        <v>1980</v>
+        <v>11700</v>
       </c>
       <c r="C117">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>46.2</v>
+        <v>48.1</v>
       </c>
       <c r="F117">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2740,19 +2740,19 @@
         <v>42474</v>
       </c>
       <c r="B118">
-        <v>1980</v>
+        <v>11100</v>
       </c>
       <c r="C118">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>80.5</v>
+        <v>80.2</v>
       </c>
       <c r="F118">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2760,19 +2760,19 @@
         <v>42478</v>
       </c>
       <c r="B119">
-        <v>1980</v>
+        <v>11880</v>
       </c>
       <c r="C119">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="D119">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E119">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F119">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2780,19 +2780,19 @@
         <v>42481</v>
       </c>
       <c r="B120">
-        <v>1980</v>
+        <v>11880</v>
       </c>
       <c r="C120">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="D120">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E120">
-        <v>85.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="F120">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2800,19 +2800,19 @@
         <v>42485</v>
       </c>
       <c r="B121">
-        <v>1500</v>
+        <v>19800</v>
       </c>
       <c r="C121">
-        <v>18.3</v>
+        <v>17.2</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>35.8</v>
+        <v>39.5</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2820,19 +2820,19 @@
         <v>42492</v>
       </c>
       <c r="B122">
-        <v>1450</v>
+        <v>11880</v>
       </c>
       <c r="C122">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="D122">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E122">
-        <v>64.90000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F122">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2840,19 +2840,19 @@
         <v>42495</v>
       </c>
       <c r="B123">
-        <v>1980</v>
+        <v>19320</v>
       </c>
       <c r="C123">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="D123">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>49.8</v>
+        <v>53.1</v>
       </c>
       <c r="F123">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2860,19 +2860,19 @@
         <v>42499</v>
       </c>
       <c r="B124">
-        <v>1490</v>
+        <v>8400</v>
       </c>
       <c r="C124">
-        <v>20.9</v>
+        <v>20.1</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="F124">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2880,19 +2880,19 @@
         <v>42502</v>
       </c>
       <c r="B125">
-        <v>1490</v>
+        <v>19320</v>
       </c>
       <c r="C125">
-        <v>18.6</v>
+        <v>17.9</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>63.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F125">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2900,19 +2900,19 @@
         <v>42506</v>
       </c>
       <c r="B126">
-        <v>1490</v>
+        <v>12420</v>
       </c>
       <c r="C126">
-        <v>17</v>
+        <v>16.1</v>
       </c>
       <c r="D126">
         <v>1.5</v>
       </c>
       <c r="E126">
-        <v>59.9</v>
+        <v>60.3</v>
       </c>
       <c r="F126">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2920,19 +2920,19 @@
         <v>42509</v>
       </c>
       <c r="B127">
-        <v>1490</v>
+        <v>12420</v>
       </c>
       <c r="C127">
-        <v>25.5</v>
+        <v>24.1</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>38.3</v>
+        <v>41.9</v>
       </c>
       <c r="F127">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2940,19 +2940,19 @@
         <v>42513</v>
       </c>
       <c r="B128">
-        <v>1490</v>
+        <v>12420</v>
       </c>
       <c r="C128">
-        <v>24.1</v>
+        <v>23.2</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>44.4</v>
+        <v>47.4</v>
       </c>
       <c r="F128">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2960,19 +2960,19 @@
         <v>42516</v>
       </c>
       <c r="B129">
-        <v>1490</v>
+        <v>11880</v>
       </c>
       <c r="C129">
-        <v>20.4</v>
+        <v>19.4</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>71</v>
+        <v>75.5</v>
       </c>
       <c r="F129">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2980,19 +2980,19 @@
         <v>42523</v>
       </c>
       <c r="B130">
-        <v>1490</v>
+        <v>12720</v>
       </c>
       <c r="C130">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="F130">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3000,19 +3000,19 @@
         <v>42527</v>
       </c>
       <c r="B131">
-        <v>1490</v>
+        <v>14700</v>
       </c>
       <c r="C131">
-        <v>24.3</v>
+        <v>23.5</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>51.2</v>
+        <v>52.3</v>
       </c>
       <c r="F131">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3020,19 +3020,19 @@
         <v>42530</v>
       </c>
       <c r="B132">
-        <v>1490</v>
+        <v>12720</v>
       </c>
       <c r="C132">
-        <v>24.3</v>
+        <v>23.2</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>64.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F132">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3040,19 +3040,19 @@
         <v>42534</v>
       </c>
       <c r="B133">
-        <v>1490</v>
+        <v>14940</v>
       </c>
       <c r="C133">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>71.7</v>
+        <v>76.7</v>
       </c>
       <c r="F133">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3060,19 +3060,19 @@
         <v>42537</v>
       </c>
       <c r="B134">
-        <v>1490</v>
+        <v>14940</v>
       </c>
       <c r="C134">
-        <v>21.7</v>
+        <v>21</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>74.8</v>
+        <v>76.7</v>
       </c>
       <c r="F134">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3080,19 +3080,19 @@
         <v>42541</v>
       </c>
       <c r="B135">
-        <v>1490</v>
+        <v>10080</v>
       </c>
       <c r="C135">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>67.59999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F135">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3100,19 +3100,19 @@
         <v>42544</v>
       </c>
       <c r="B136">
-        <v>1490</v>
+        <v>19320</v>
       </c>
       <c r="C136">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>72.2</v>
+        <v>74.7</v>
       </c>
       <c r="F136">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3120,19 +3120,19 @@
         <v>42548</v>
       </c>
       <c r="B137">
-        <v>1490</v>
+        <v>7200</v>
       </c>
       <c r="C137">
-        <v>25.7</v>
+        <v>24.7</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>58.1</v>
+        <v>60.3</v>
       </c>
       <c r="F137">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3140,19 +3140,19 @@
         <v>42555</v>
       </c>
       <c r="B138">
-        <v>1490</v>
+        <v>14760</v>
       </c>
       <c r="C138">
-        <v>22.8</v>
+        <v>22.1</v>
       </c>
       <c r="D138">
-        <v>26.5</v>
+        <v>22.5</v>
       </c>
       <c r="E138">
-        <v>84.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3160,19 +3160,19 @@
         <v>42558</v>
       </c>
       <c r="B139">
-        <v>1490</v>
+        <v>14760</v>
       </c>
       <c r="C139">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>73.7</v>
+        <v>74</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3180,19 +3180,19 @@
         <v>42562</v>
       </c>
       <c r="B140">
-        <v>1490</v>
+        <v>11580</v>
       </c>
       <c r="C140">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>67.40000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="F140">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3200,19 +3200,19 @@
         <v>42565</v>
       </c>
       <c r="B141">
-        <v>1980</v>
+        <v>14740</v>
       </c>
       <c r="C141">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>71.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3220,19 +3220,19 @@
         <v>42569</v>
       </c>
       <c r="B142">
-        <v>1980</v>
+        <v>13260</v>
       </c>
       <c r="C142">
-        <v>24.8</v>
+        <v>23.8</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>75.7</v>
+        <v>78.8</v>
       </c>
       <c r="F142">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3240,19 +3240,19 @@
         <v>42572</v>
       </c>
       <c r="B143">
-        <v>1980</v>
+        <v>13260</v>
       </c>
       <c r="C143">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>66.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="F143">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3260,19 +3260,19 @@
         <v>42576</v>
       </c>
       <c r="B144">
-        <v>1980</v>
+        <v>15420</v>
       </c>
       <c r="C144">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>78.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F144">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3280,19 +3280,19 @@
         <v>42583</v>
       </c>
       <c r="B145">
-        <v>1980</v>
+        <v>9960</v>
       </c>
       <c r="C145">
-        <v>29.3</v>
+        <v>28.2</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>75.7</v>
+        <v>77.3</v>
       </c>
       <c r="F145">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3300,16 +3300,16 @@
         <v>42586</v>
       </c>
       <c r="B146">
-        <v>1980</v>
+        <v>9960</v>
       </c>
       <c r="C146">
-        <v>31.4</v>
+        <v>30.5</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>66.5</v>
+        <v>65.3</v>
       </c>
       <c r="F146">
         <v>1.3</v>
@@ -3320,19 +3320,19 @@
         <v>42590</v>
       </c>
       <c r="B147">
-        <v>1980</v>
+        <v>12300</v>
       </c>
       <c r="C147">
-        <v>31.4</v>
+        <v>30.2</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>66.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F147">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3340,19 +3340,19 @@
         <v>42593</v>
       </c>
       <c r="B148">
-        <v>1980</v>
+        <v>12300</v>
       </c>
       <c r="C148">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>68.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F148">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3360,316 +3360,316 @@
         <v>42597</v>
       </c>
       <c r="B149">
-        <v>1980</v>
+        <v>15480</v>
       </c>
       <c r="C149">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>67.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F149">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>42598</v>
+        <v>42600</v>
       </c>
       <c r="B150">
-        <v>1980</v>
+        <v>14760</v>
       </c>
       <c r="C150">
-        <v>30.4</v>
+        <v>29.5</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>66.3</v>
+        <v>68.7</v>
       </c>
       <c r="F150">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>42600</v>
+        <v>42604</v>
       </c>
       <c r="B151">
-        <v>1980</v>
+        <v>14400</v>
       </c>
       <c r="C151">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>65.2</v>
+        <v>65.7</v>
       </c>
       <c r="F151">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>42604</v>
+        <v>42607</v>
       </c>
       <c r="B152">
-        <v>1980</v>
+        <v>12300</v>
       </c>
       <c r="C152">
-        <v>31.1</v>
+        <v>27.1</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E152">
-        <v>64.7</v>
+        <v>73.3</v>
       </c>
       <c r="F152">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>42607</v>
+        <v>42614</v>
       </c>
       <c r="B153">
-        <v>1980</v>
+        <v>14760</v>
       </c>
       <c r="C153">
-        <v>28.5</v>
+        <v>23.5</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>69.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="F153">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>42614</v>
+        <v>42618</v>
       </c>
       <c r="B154">
-        <v>1980</v>
+        <v>14280</v>
       </c>
       <c r="C154">
-        <v>24.4</v>
+        <v>26.2</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>74.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>42618</v>
+        <v>42621</v>
       </c>
       <c r="B155">
-        <v>3500</v>
+        <v>14280</v>
       </c>
       <c r="C155">
-        <v>27.3</v>
+        <v>22.9</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E155">
-        <v>69.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="F155">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>42621</v>
+        <v>42625</v>
       </c>
       <c r="B156">
-        <v>3500</v>
+        <v>15120</v>
       </c>
       <c r="C156">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="D156">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>75.5</v>
+        <v>73</v>
       </c>
       <c r="F156">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>42625</v>
+        <v>42632</v>
       </c>
       <c r="B157">
-        <v>3500</v>
+        <v>9900</v>
       </c>
       <c r="C157">
-        <v>25.2</v>
+        <v>22</v>
       </c>
       <c r="D157">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>69.09999999999999</v>
+        <v>57</v>
       </c>
       <c r="F157">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>42632</v>
+        <v>42635</v>
       </c>
       <c r="B158">
-        <v>3500</v>
+        <v>10800</v>
       </c>
       <c r="C158">
-        <v>23</v>
+        <v>21.4</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>56.1</v>
+        <v>52.5</v>
       </c>
       <c r="F158">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>42635</v>
+        <v>42639</v>
       </c>
       <c r="B159">
-        <v>3500</v>
+        <v>14760</v>
       </c>
       <c r="C159">
-        <v>22.6</v>
+        <v>23.8</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>51.9</v>
+        <v>62.4</v>
       </c>
       <c r="F159">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>42639</v>
+        <v>42646</v>
       </c>
       <c r="B160">
-        <v>3500</v>
+        <v>13260</v>
       </c>
       <c r="C160">
-        <v>24.6</v>
+        <v>22.5</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E160">
-        <v>64.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F160">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>42647</v>
+        <v>42649</v>
       </c>
       <c r="B161">
-        <v>2500</v>
+        <v>13260</v>
       </c>
       <c r="C161">
-        <v>23.1</v>
+        <v>17.7</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>62.4</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F161">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>42649</v>
+        <v>42653</v>
       </c>
       <c r="B162">
-        <v>2500</v>
+        <v>13260</v>
       </c>
       <c r="C162">
-        <v>18.9</v>
+        <v>13.6</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>60.7</v>
+        <v>48.6</v>
       </c>
       <c r="F162">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>42653</v>
+        <v>42656</v>
       </c>
       <c r="B163">
-        <v>2500</v>
+        <v>12900</v>
       </c>
       <c r="C163">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>45.3</v>
+        <v>50</v>
       </c>
       <c r="F163">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>42656</v>
+        <v>42660</v>
       </c>
       <c r="B164">
-        <v>2500</v>
+        <v>13080</v>
       </c>
       <c r="C164">
-        <v>16.2</v>
+        <v>17.4</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>46</v>
+        <v>78.5</v>
       </c>
       <c r="F164">
         <v>1.1</v>
@@ -3677,1019 +3677,1019 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>42660</v>
+        <v>42663</v>
       </c>
       <c r="B165">
-        <v>2500</v>
+        <v>12840</v>
       </c>
       <c r="C165">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>76.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="F165">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>42663</v>
+        <v>42667</v>
       </c>
       <c r="B166">
-        <v>2500</v>
+        <v>14220</v>
       </c>
       <c r="C166">
-        <v>19.6</v>
+        <v>14.9</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166">
-        <v>66.59999999999999</v>
+        <v>58.9</v>
       </c>
       <c r="F166">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>42667</v>
+        <v>42670</v>
       </c>
       <c r="B167">
-        <v>2500</v>
+        <v>13260</v>
       </c>
       <c r="C167">
-        <v>15.7</v>
+        <v>14.7</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>58.6</v>
+        <v>70.7</v>
       </c>
       <c r="F167">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>42670</v>
+        <v>42677</v>
       </c>
       <c r="B168">
-        <v>2980</v>
+        <v>12840</v>
       </c>
       <c r="C168">
-        <v>15.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E168">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F168">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>42677</v>
+        <v>42681</v>
       </c>
       <c r="B169">
-        <v>2980</v>
+        <v>13680</v>
       </c>
       <c r="C169">
-        <v>10.7</v>
+        <v>13.2</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E169">
-        <v>63.1</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>42681</v>
+        <v>42684</v>
       </c>
       <c r="B170">
-        <v>2980</v>
+        <v>12840</v>
       </c>
       <c r="C170">
-        <v>14.2</v>
+        <v>6.4</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>71.3</v>
+        <v>58.3</v>
       </c>
       <c r="F170">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>42684</v>
+        <v>42688</v>
       </c>
       <c r="B171">
-        <v>2980</v>
+        <v>13680</v>
       </c>
       <c r="C171">
-        <v>7.6</v>
+        <v>14.5</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>55.4</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F171">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>42688</v>
+        <v>42691</v>
       </c>
       <c r="B172">
-        <v>2980</v>
+        <v>13680</v>
       </c>
       <c r="C172">
-        <v>14.9</v>
+        <v>9.1</v>
       </c>
       <c r="D172">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>79.3</v>
+        <v>61.1</v>
       </c>
       <c r="F172">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>42691</v>
+        <v>42695</v>
       </c>
       <c r="B173">
-        <v>2980</v>
+        <v>15000</v>
       </c>
       <c r="C173">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>58.9</v>
+        <v>49.1</v>
       </c>
       <c r="F173">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>42695</v>
+        <v>42698</v>
       </c>
       <c r="B174">
-        <v>1980</v>
+        <v>15000</v>
       </c>
       <c r="C174">
-        <v>10.8</v>
+        <v>-1.7</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>46.9</v>
+        <v>43.9</v>
       </c>
       <c r="F174">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>42698</v>
+        <v>42705</v>
       </c>
       <c r="B175">
-        <v>1980</v>
+        <v>11280</v>
       </c>
       <c r="C175">
-        <v>-0.4</v>
+        <v>5.3</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>41.6</v>
+        <v>53.8</v>
       </c>
       <c r="F175">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>42705</v>
+        <v>42709</v>
       </c>
       <c r="B176">
-        <v>1980</v>
+        <v>11280</v>
       </c>
       <c r="C176">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E176">
-        <v>52.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>42709</v>
+        <v>42712</v>
       </c>
       <c r="B177">
-        <v>1750</v>
+        <v>13680</v>
       </c>
       <c r="C177">
-        <v>7.9</v>
+        <v>2.9</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>70.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F177">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>42712</v>
+        <v>42716</v>
       </c>
       <c r="B178">
-        <v>1750</v>
+        <v>12480</v>
       </c>
       <c r="C178">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="D178">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>66.40000000000001</v>
+        <v>43.1</v>
       </c>
       <c r="F178">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>42716</v>
+        <v>42719</v>
       </c>
       <c r="B179">
-        <v>1980</v>
+        <v>12480</v>
       </c>
       <c r="C179">
-        <v>3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>42.7</v>
+        <v>47</v>
       </c>
       <c r="F179">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>42719</v>
+        <v>42723</v>
       </c>
       <c r="B180">
-        <v>1980</v>
+        <v>12480</v>
       </c>
       <c r="C180">
-        <v>-3.1</v>
+        <v>8.4</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>42.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F180">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>42723</v>
+        <v>42726</v>
       </c>
       <c r="B181">
-        <v>1980</v>
+        <v>12480</v>
       </c>
       <c r="C181">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="E181">
-        <v>68.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F181">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>42726</v>
+        <v>42730</v>
       </c>
       <c r="B182">
-        <v>1980</v>
+        <v>9480</v>
       </c>
       <c r="C182">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="D182">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="E182">
-        <v>90.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="F182">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>42730</v>
+        <v>42737</v>
       </c>
       <c r="B183">
-        <v>2580</v>
+        <v>12480</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E183">
-        <v>74</v>
+        <v>79.7</v>
       </c>
       <c r="F183">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>42737</v>
+        <v>42740</v>
       </c>
       <c r="B184">
-        <v>1070</v>
+        <v>12480</v>
       </c>
       <c r="C184">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>77.2</v>
+        <v>58.4</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>42740</v>
+        <v>42744</v>
       </c>
       <c r="B185">
-        <v>990</v>
+        <v>10800</v>
       </c>
       <c r="C185">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>56.6</v>
+        <v>65.5</v>
       </c>
       <c r="F185">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>42744</v>
+        <v>42747</v>
       </c>
       <c r="B186">
-        <v>990</v>
+        <v>12480</v>
       </c>
       <c r="C186">
-        <v>3.6</v>
+        <v>-1.1</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>63.1</v>
+        <v>48.7</v>
       </c>
       <c r="F186">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>42747</v>
+        <v>42751</v>
       </c>
       <c r="B187">
-        <v>990</v>
+        <v>14480</v>
       </c>
       <c r="C187">
-        <v>-0.1</v>
+        <v>-3.2</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>49.3</v>
+        <v>42.7</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>42751</v>
+        <v>42754</v>
       </c>
       <c r="B188">
-        <v>1440</v>
+        <v>17880</v>
       </c>
       <c r="C188">
-        <v>-1.9</v>
+        <v>-0.8</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>43.7</v>
+        <v>61.3</v>
       </c>
       <c r="F188">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>42754</v>
+        <v>42758</v>
       </c>
       <c r="B189">
-        <v>1440</v>
+        <v>10080</v>
       </c>
       <c r="C189">
-        <v>0.3</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>59.4</v>
+        <v>52.2</v>
       </c>
       <c r="F189">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>42758</v>
+        <v>42768</v>
       </c>
       <c r="B190">
-        <v>1440</v>
+        <v>13500</v>
       </c>
       <c r="C190">
-        <v>-7.1</v>
+        <v>-2.6</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>50.6</v>
+        <v>54.5</v>
       </c>
       <c r="F190">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>42768</v>
+        <v>42772</v>
       </c>
       <c r="B191">
-        <v>1440</v>
+        <v>14280</v>
       </c>
       <c r="C191">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F191">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>42772</v>
+        <v>42775</v>
       </c>
       <c r="B192">
-        <v>1440</v>
+        <v>13500</v>
       </c>
       <c r="C192">
-        <v>-0.2</v>
+        <v>-4.2</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>54</v>
+        <v>51.2</v>
       </c>
       <c r="F192">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>42775</v>
+        <v>42779</v>
       </c>
       <c r="B193">
-        <v>940</v>
+        <v>9480</v>
       </c>
       <c r="C193">
-        <v>-3.3</v>
+        <v>0.5</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>50</v>
+        <v>62.6</v>
       </c>
       <c r="F193">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2">
-        <v>42779</v>
+        <v>42782</v>
       </c>
       <c r="B194">
-        <v>940</v>
+        <v>12480</v>
       </c>
       <c r="C194">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>63.4</v>
+        <v>61.7</v>
       </c>
       <c r="F194">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2">
-        <v>42782</v>
+        <v>42786</v>
       </c>
       <c r="B195">
-        <v>700</v>
+        <v>15180</v>
       </c>
       <c r="C195">
-        <v>7.4</v>
+        <v>-0.4</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E195">
-        <v>65.40000000000001</v>
+        <v>60.6</v>
       </c>
       <c r="F195">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2">
-        <v>42786</v>
+        <v>42789</v>
       </c>
       <c r="B196">
-        <v>7280</v>
+        <v>15180</v>
       </c>
       <c r="C196">
-        <v>0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="D196">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>58.2</v>
+        <v>61.2</v>
       </c>
       <c r="F196">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>42789</v>
+        <v>42796</v>
       </c>
       <c r="B197">
-        <v>7280</v>
+        <v>9900</v>
       </c>
       <c r="C197">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E197">
-        <v>57.9</v>
+        <v>66.5</v>
       </c>
       <c r="F197">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2">
-        <v>42796</v>
+        <v>42800</v>
       </c>
       <c r="B198">
-        <v>7280</v>
+        <v>9900</v>
       </c>
       <c r="C198">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="D198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>63.6</v>
+        <v>46.8</v>
       </c>
       <c r="F198">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="2">
-        <v>42800</v>
+        <v>42803</v>
       </c>
       <c r="B199">
-        <v>6980</v>
+        <v>12480</v>
       </c>
       <c r="C199">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>45.2</v>
+        <v>54.5</v>
       </c>
       <c r="F199">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2">
-        <v>42803</v>
+        <v>42807</v>
       </c>
       <c r="B200">
-        <v>7280</v>
+        <v>14100</v>
       </c>
       <c r="C200">
-        <v>4.7</v>
+        <v>6.7</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>52.6</v>
+        <v>57.4</v>
       </c>
       <c r="F200">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="2">
-        <v>42807</v>
+        <v>42810</v>
       </c>
       <c r="B201">
-        <v>5900</v>
+        <v>12960</v>
       </c>
       <c r="C201">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>55.2</v>
+        <v>48.5</v>
       </c>
       <c r="F201">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>42810</v>
+        <v>42814</v>
       </c>
       <c r="B202">
-        <v>6980</v>
+        <v>12960</v>
       </c>
       <c r="C202">
-        <v>7.3</v>
+        <v>10.7</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>47.1</v>
+        <v>45</v>
       </c>
       <c r="F202">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2">
-        <v>42814</v>
+        <v>42817</v>
       </c>
       <c r="B203">
-        <v>6980</v>
+        <v>12960</v>
       </c>
       <c r="C203">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>45.7</v>
+        <v>40.8</v>
       </c>
       <c r="F203">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2">
-        <v>42817</v>
+        <v>42821</v>
       </c>
       <c r="B204">
-        <v>6980</v>
+        <v>15180</v>
       </c>
       <c r="C204">
-        <v>10.1</v>
+        <v>6.3</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E204">
-        <v>41.4</v>
+        <v>72.8</v>
       </c>
       <c r="F204">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>42821</v>
+        <v>42828</v>
       </c>
       <c r="B205">
-        <v>6980</v>
+        <v>9600</v>
       </c>
       <c r="C205">
-        <v>7.7</v>
+        <v>11.2</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F205">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2">
-        <v>42828</v>
+        <v>42831</v>
       </c>
       <c r="B206">
-        <v>6980</v>
+        <v>15180</v>
       </c>
       <c r="C206">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E206">
-        <v>53.2</v>
+        <v>90.3</v>
       </c>
       <c r="F206">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2">
-        <v>42831</v>
+        <v>42835</v>
       </c>
       <c r="B207">
-        <v>6980</v>
+        <v>9720</v>
       </c>
       <c r="C207">
-        <v>11.4</v>
+        <v>16</v>
       </c>
       <c r="D207">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E207">
-        <v>89.3</v>
+        <v>31</v>
       </c>
       <c r="F207">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>42835</v>
+        <v>42837</v>
       </c>
       <c r="B208">
-        <v>6980</v>
+        <v>15180</v>
       </c>
       <c r="C208">
-        <v>16.8</v>
+        <v>11.5</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>28.8</v>
+        <v>23.5</v>
       </c>
       <c r="F208">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2">
-        <v>42837</v>
+        <v>42842</v>
       </c>
       <c r="B209">
-        <v>6980</v>
+        <v>10440</v>
       </c>
       <c r="C209">
-        <v>12.5</v>
+        <v>15.2</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E209">
-        <v>21.9</v>
+        <v>68.2</v>
       </c>
       <c r="F209">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2">
-        <v>42842</v>
+        <v>42845</v>
       </c>
       <c r="B210">
-        <v>6980</v>
+        <v>9540</v>
       </c>
       <c r="C210">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>70.40000000000001</v>
+        <v>49.2</v>
       </c>
       <c r="F210">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>42845</v>
+        <v>42849</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>8280</v>
       </c>
       <c r="C211">
-        <v>13.9</v>
+        <v>15</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>48.3</v>
+        <v>41.5</v>
       </c>
       <c r="F211">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2">
-        <v>42849</v>
+        <v>42856</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>8820</v>
       </c>
       <c r="C212">
-        <v>15.9</v>
+        <v>19.6</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>42.8</v>
+        <v>56.5</v>
       </c>
       <c r="F212">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>42856</v>
+        <v>42859</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>12960</v>
       </c>
       <c r="C213">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>59.3</v>
+        <v>48.7</v>
       </c>
       <c r="F213">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>42859</v>
+        <v>42863</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>14880</v>
       </c>
       <c r="C214">
-        <v>21.8</v>
+        <v>17.7</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>48.2</v>
+        <v>49.7</v>
       </c>
       <c r="F214">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2">
-        <v>42863</v>
+        <v>42866</v>
       </c>
       <c r="B215">
-        <v>8980</v>
+        <v>15720</v>
       </c>
       <c r="C215">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="D215">
         <v>0</v>
       </c>
       <c r="E215">
-        <v>50.1</v>
+        <v>68.2</v>
       </c>
       <c r="F215">
         <v>1.6</v>
@@ -4697,599 +4697,599 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2">
-        <v>42866</v>
+        <v>42870</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>15720</v>
       </c>
       <c r="C216">
-        <v>19.3</v>
+        <v>15.6</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>69.7</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F216">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2">
-        <v>42870</v>
+        <v>42873</v>
       </c>
       <c r="B217">
-        <v>8980</v>
+        <v>15720</v>
       </c>
       <c r="C217">
-        <v>16.7</v>
+        <v>20.1</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>64.7</v>
+        <v>48.4</v>
       </c>
       <c r="F217">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2">
-        <v>42873</v>
+        <v>42877</v>
       </c>
       <c r="B218">
-        <v>8980</v>
+        <v>15060</v>
       </c>
       <c r="C218">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>48.7</v>
+        <v>59.9</v>
       </c>
       <c r="F218">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2">
-        <v>42877</v>
+        <v>42880</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>2510</v>
       </c>
       <c r="C219">
-        <v>22.3</v>
+        <v>19.3</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>58</v>
+        <v>52.9</v>
       </c>
       <c r="F219">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>42880</v>
+        <v>42887</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>15540</v>
       </c>
       <c r="C220">
-        <v>20.1</v>
+        <v>22.8</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>53.3</v>
+        <v>61.6</v>
       </c>
       <c r="F220">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2">
-        <v>42887</v>
+        <v>42891</v>
       </c>
       <c r="B221">
-        <v>7080</v>
+        <v>10560</v>
       </c>
       <c r="C221">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>60.1</v>
+        <v>39.7</v>
       </c>
       <c r="F221">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2">
-        <v>42891</v>
+        <v>42894</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>10560</v>
       </c>
       <c r="C222">
-        <v>24.6</v>
+        <v>19.5</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>39.5</v>
+        <v>72.2</v>
       </c>
       <c r="F222">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>42894</v>
+        <v>42898</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>14880</v>
       </c>
       <c r="C223">
-        <v>20.3</v>
+        <v>21.7</v>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>72.7</v>
+        <v>49.2</v>
       </c>
       <c r="F223">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2">
-        <v>42898</v>
+        <v>42901</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>14880</v>
       </c>
       <c r="C224">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>48.5</v>
+        <v>67.8</v>
       </c>
       <c r="F224">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>42901</v>
+        <v>42905</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>13020</v>
       </c>
       <c r="C225">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>70.5</v>
+        <v>57.7</v>
       </c>
       <c r="F225">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="2">
-        <v>42905</v>
+        <v>42908</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>13260</v>
       </c>
       <c r="C226">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="D226">
         <v>0</v>
       </c>
       <c r="E226">
-        <v>58.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F226">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="2">
-        <v>42908</v>
+        <v>42912</v>
       </c>
       <c r="B227">
-        <v>7580</v>
+        <v>13260</v>
       </c>
       <c r="C227">
-        <v>25.4</v>
+        <v>23</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="E227">
-        <v>64</v>
+        <v>77.7</v>
       </c>
       <c r="F227">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2">
-        <v>42912</v>
+        <v>42919</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="C228">
-        <v>23.8</v>
+        <v>24.6</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="E228">
-        <v>78.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F228">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="2">
-        <v>42919</v>
+        <v>42922</v>
       </c>
       <c r="B229">
-        <v>8980</v>
+        <v>14400</v>
       </c>
       <c r="C229">
-        <v>25.4</v>
+        <v>27.5</v>
       </c>
       <c r="D229">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="E229">
-        <v>89.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="F229">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="2">
-        <v>42922</v>
+        <v>42926</v>
       </c>
       <c r="B230">
-        <v>8980</v>
+        <v>11940</v>
       </c>
       <c r="C230">
-        <v>28.8</v>
+        <v>24.1</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>133.5</v>
       </c>
       <c r="E230">
-        <v>71.2</v>
+        <v>94.8</v>
       </c>
       <c r="F230">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2">
-        <v>42926</v>
+        <v>42929</v>
       </c>
       <c r="B231">
-        <v>8980</v>
+        <v>11940</v>
       </c>
       <c r="C231">
-        <v>24.7</v>
+        <v>27.5</v>
       </c>
       <c r="D231">
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>95.09999999999999</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F231">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2">
-        <v>42929</v>
+        <v>42933</v>
       </c>
       <c r="B232">
-        <v>8800</v>
+        <v>15840</v>
       </c>
       <c r="C232">
-        <v>28.4</v>
+        <v>26.9</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>72.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="F232">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2">
-        <v>42933</v>
+        <v>42936</v>
       </c>
       <c r="B233">
-        <v>8800</v>
+        <v>15840</v>
       </c>
       <c r="C233">
-        <v>27.3</v>
+        <v>29.5</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>81.5</v>
+        <v>71.8</v>
       </c>
       <c r="F233">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2">
-        <v>42936</v>
+        <v>42940</v>
       </c>
       <c r="B234">
-        <v>8800</v>
+        <v>15840</v>
       </c>
       <c r="C234">
-        <v>30</v>
+        <v>26.2</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E234">
-        <v>72.2</v>
+        <v>84.7</v>
       </c>
       <c r="F234">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>42940</v>
+        <v>42943</v>
       </c>
       <c r="B235">
-        <v>8800</v>
+        <v>15840</v>
       </c>
       <c r="C235">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="D235">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E235">
-        <v>85.90000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="F235">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="2">
-        <v>42943</v>
+        <v>42950</v>
       </c>
       <c r="B236">
-        <v>8800</v>
+        <v>15300</v>
       </c>
       <c r="C236">
-        <v>28.4</v>
+        <v>30.1</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>63.7</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F236">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="2">
-        <v>42950</v>
+        <v>42954</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>14940</v>
       </c>
       <c r="C237">
-        <v>30.7</v>
+        <v>28.8</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>65.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F237">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="2">
-        <v>42954</v>
+        <v>42957</v>
       </c>
       <c r="B238">
-        <v>8700</v>
+        <v>15060</v>
       </c>
       <c r="C238">
-        <v>30</v>
+        <v>24.8</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E238">
-        <v>70.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="F238">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="2">
-        <v>42957</v>
+        <v>42961</v>
       </c>
       <c r="B239">
-        <v>8700</v>
+        <v>15060</v>
       </c>
       <c r="C239">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="D239">
-        <v>43.5</v>
+        <v>2.5</v>
       </c>
       <c r="E239">
-        <v>90.90000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="F239">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="2">
-        <v>42961</v>
+        <v>42964</v>
       </c>
       <c r="B240">
-        <v>8700</v>
+        <v>13260</v>
       </c>
       <c r="C240">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D240">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E240">
-        <v>71.2</v>
+        <v>78</v>
       </c>
       <c r="F240">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="2">
-        <v>42964</v>
+        <v>42968</v>
       </c>
       <c r="B241">
-        <v>8700</v>
+        <v>15600</v>
       </c>
       <c r="C241">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E241">
-        <v>81.5</v>
+        <v>83.7</v>
       </c>
       <c r="F241">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
-        <v>42968</v>
+        <v>42971</v>
       </c>
       <c r="B242">
-        <v>7080</v>
+        <v>14700</v>
       </c>
       <c r="C242">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="D242">
-        <v>3.5</v>
+        <v>25.5</v>
       </c>
       <c r="E242">
-        <v>84.90000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="F242">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="2">
-        <v>42971</v>
+        <v>42975</v>
       </c>
       <c r="B243">
-        <v>7980</v>
+        <v>13080</v>
       </c>
       <c r="C243">
-        <v>27.4</v>
+        <v>21.6</v>
       </c>
       <c r="D243">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>88</v>
+        <v>74.2</v>
       </c>
       <c r="F243">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="2">
-        <v>42975</v>
+        <v>42982</v>
       </c>
       <c r="B244">
-        <v>7480</v>
+        <v>15300</v>
       </c>
       <c r="C244">
-        <v>22.7</v>
+        <v>24.5</v>
       </c>
       <c r="D244">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="E244">
-        <v>74.09999999999999</v>
+        <v>58.7</v>
       </c>
       <c r="F244">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2">
-        <v>42982</v>
+        <v>42985</v>
       </c>
       <c r="B245">
-        <v>6080</v>
+        <v>15300</v>
       </c>
       <c r="C245">
-        <v>25.6</v>
+        <v>21.8</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>56.6</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F245">
         <v>1.1</v>
@@ -5297,79 +5297,79 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2">
-        <v>42985</v>
+        <v>42989</v>
       </c>
       <c r="B246">
-        <v>7980</v>
+        <v>15000</v>
       </c>
       <c r="C246">
-        <v>22.9</v>
+        <v>21</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="E246">
-        <v>74.59999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="2">
-        <v>42989</v>
+        <v>42992</v>
       </c>
       <c r="B247">
-        <v>5480</v>
+        <v>15000</v>
       </c>
       <c r="C247">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="D247">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E247">
-        <v>80.09999999999999</v>
+        <v>54.8</v>
       </c>
       <c r="F247">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="2">
-        <v>42992</v>
+        <v>42996</v>
       </c>
       <c r="B248">
-        <v>5480</v>
+        <v>10800</v>
       </c>
       <c r="C248">
-        <v>23.2</v>
+        <v>21.4</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>52.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F248">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="2">
-        <v>42996</v>
+        <v>42999</v>
       </c>
       <c r="B249">
-        <v>5480</v>
+        <v>15000</v>
       </c>
       <c r="C249">
-        <v>22.7</v>
+        <v>20.1</v>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
       <c r="E249">
-        <v>64.40000000000001</v>
+        <v>62.6</v>
       </c>
       <c r="F249">
         <v>1.2</v>
@@ -5377,267 +5377,267 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="2">
-        <v>42999</v>
+        <v>43003</v>
       </c>
       <c r="B250">
-        <v>5480</v>
+        <v>14940</v>
       </c>
       <c r="C250">
-        <v>21.4</v>
+        <v>23.1</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>62.1</v>
+        <v>63.2</v>
       </c>
       <c r="F250">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2">
-        <v>43003</v>
+        <v>43010</v>
       </c>
       <c r="B251">
-        <v>5480</v>
+        <v>14280</v>
       </c>
       <c r="C251">
-        <v>24.3</v>
+        <v>21</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E251">
-        <v>61.7</v>
+        <v>69.7</v>
       </c>
       <c r="F251">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2">
-        <v>43010</v>
+        <v>43017</v>
       </c>
       <c r="B252">
-        <v>5480</v>
+        <v>14340</v>
       </c>
       <c r="C252">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D252">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E252">
-        <v>69.7</v>
+        <v>73.3</v>
       </c>
       <c r="F252">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="2">
-        <v>43017</v>
+        <v>43020</v>
       </c>
       <c r="B253">
-        <v>5480</v>
+        <v>15000</v>
       </c>
       <c r="C253">
-        <v>22.5</v>
+        <v>11.4</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>71.90000000000001</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F253">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2">
-        <v>43020</v>
+        <v>43024</v>
       </c>
       <c r="B254">
-        <v>5480</v>
+        <v>15060</v>
       </c>
       <c r="C254">
-        <v>12.5</v>
+        <v>16.3</v>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254">
-        <v>67.3</v>
+        <v>53.9</v>
       </c>
       <c r="F254">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="2">
-        <v>43024</v>
+        <v>43027</v>
       </c>
       <c r="B255">
-        <v>5480</v>
+        <v>15060</v>
       </c>
       <c r="C255">
-        <v>17.4</v>
+        <v>16.4</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>50.5</v>
+        <v>61.6</v>
       </c>
       <c r="F255">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="2">
-        <v>43027</v>
+        <v>43031</v>
       </c>
       <c r="B256">
-        <v>5480</v>
+        <v>14340</v>
       </c>
       <c r="C256">
-        <v>17.7</v>
+        <v>13.3</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>59.5</v>
+        <v>53.8</v>
       </c>
       <c r="F256">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="2">
-        <v>43031</v>
+        <v>43034</v>
       </c>
       <c r="B257">
-        <v>5880</v>
+        <v>14340</v>
       </c>
       <c r="C257">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>54</v>
+        <v>61.9</v>
       </c>
       <c r="F257">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="2">
-        <v>43034</v>
+        <v>43041</v>
       </c>
       <c r="B258">
-        <v>5880</v>
+        <v>9480</v>
       </c>
       <c r="C258">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>61.2</v>
+        <v>83.8</v>
       </c>
       <c r="F258">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="2">
-        <v>43041</v>
+        <v>43045</v>
       </c>
       <c r="B259">
-        <v>5980</v>
-      </c>
-      <c r="C259">
-        <v>14.9</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="F259">
-        <v>1.1</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2">
-        <v>43045</v>
+        <v>43048</v>
       </c>
       <c r="B260">
-        <v>5880</v>
+        <v>15060</v>
+      </c>
+      <c r="C260">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>47.2</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="2">
-        <v>43048</v>
+        <v>43052</v>
       </c>
       <c r="B261">
-        <v>5980</v>
+        <v>12840</v>
       </c>
       <c r="C261">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>45.4</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2">
-        <v>43052</v>
+        <v>43055</v>
       </c>
       <c r="B262">
-        <v>5980</v>
+        <v>12840</v>
       </c>
       <c r="C262">
-        <v>9.300000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D262">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E262">
-        <v>66</v>
+        <v>35.1</v>
       </c>
       <c r="F262">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="2">
-        <v>43055</v>
+        <v>43059</v>
       </c>
       <c r="B263">
-        <v>5980</v>
+        <v>11700</v>
       </c>
       <c r="C263">
-        <v>2.2</v>
+        <v>-0.2</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>34.5</v>
+        <v>55.9</v>
       </c>
       <c r="F263">
         <v>1.4</v>
@@ -5645,719 +5645,719 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="2">
-        <v>43059</v>
+        <v>43062</v>
       </c>
       <c r="B264">
-        <v>5980</v>
+        <v>12900</v>
       </c>
       <c r="C264">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>56.4</v>
+        <v>50</v>
       </c>
       <c r="F264">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="2">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="B265">
-        <v>5980</v>
+        <v>13980</v>
       </c>
       <c r="C265">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D265">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E265">
-        <v>48.5</v>
+        <v>58</v>
       </c>
       <c r="F265">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="2">
-        <v>43066</v>
+        <v>43073</v>
       </c>
       <c r="B266">
-        <v>5980</v>
+        <v>13980</v>
       </c>
       <c r="C266">
-        <v>3.2</v>
+        <v>-0.7</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>58.6</v>
+        <v>52.9</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="2">
-        <v>43073</v>
+        <v>43076</v>
       </c>
       <c r="B267">
-        <v>5980</v>
+        <v>13980</v>
       </c>
       <c r="C267">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E267">
-        <v>52.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F267">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="2">
-        <v>43076</v>
+        <v>43080</v>
       </c>
       <c r="B268">
-        <v>5980</v>
+        <v>14340</v>
       </c>
       <c r="C268">
-        <v>1.7</v>
+        <v>-6.5</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>67.59999999999999</v>
+        <v>42.4</v>
       </c>
       <c r="F268">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="2">
-        <v>43080</v>
+        <v>43083</v>
       </c>
       <c r="B269">
-        <v>5980</v>
+        <v>15840</v>
       </c>
       <c r="C269">
-        <v>-5.6</v>
+        <v>-6.6</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>41.7</v>
+        <v>45.4</v>
       </c>
       <c r="F269">
-        <v>2.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="2">
-        <v>43083</v>
+        <v>43087</v>
       </c>
       <c r="B270">
-        <v>5980</v>
+        <v>14700</v>
       </c>
       <c r="C270">
-        <v>-5.6</v>
+        <v>-1.2</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E270">
-        <v>44.3</v>
+        <v>75</v>
       </c>
       <c r="F270">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="2">
-        <v>43087</v>
+        <v>43090</v>
       </c>
       <c r="B271">
-        <v>5980</v>
+        <v>15840</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E271">
-        <v>75.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="F271">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2">
-        <v>43090</v>
+        <v>43094</v>
       </c>
       <c r="B272">
-        <v>5980</v>
+        <v>11700</v>
       </c>
       <c r="C272">
-        <v>0.1</v>
+        <v>-2</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>70.3</v>
+        <v>46</v>
       </c>
       <c r="F272">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="2">
-        <v>43094</v>
+        <v>43101</v>
       </c>
       <c r="B273">
-        <v>5980</v>
+        <v>12840</v>
       </c>
       <c r="C273">
-        <v>-1.4</v>
+        <v>-1</v>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>48.1</v>
+        <v>44.9</v>
       </c>
       <c r="F273">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2">
-        <v>43101</v>
+        <v>43104</v>
       </c>
       <c r="B274">
-        <v>5980</v>
+        <v>15840</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>-4.9</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="F274">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="2">
-        <v>43104</v>
+        <v>43108</v>
       </c>
       <c r="B275">
-        <v>5980</v>
+        <v>10080</v>
       </c>
       <c r="C275">
-        <v>-4.3</v>
+        <v>1.1</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E275">
-        <v>46.9</v>
+        <v>54.7</v>
       </c>
       <c r="F275">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="2">
-        <v>43108</v>
+        <v>43111</v>
       </c>
       <c r="B276">
-        <v>5980</v>
+        <v>12900</v>
       </c>
       <c r="C276">
-        <v>1.7</v>
+        <v>-11</v>
       </c>
       <c r="D276">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E276">
-        <v>55.2</v>
+        <v>51.8</v>
       </c>
       <c r="F276">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2">
-        <v>43111</v>
+        <v>43115</v>
       </c>
       <c r="B277">
-        <v>5980</v>
+        <v>8820</v>
       </c>
       <c r="C277">
-        <v>-10</v>
+        <v>4.4</v>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>51.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F277">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2">
-        <v>43115</v>
+        <v>43118</v>
       </c>
       <c r="B278">
-        <v>4880</v>
+        <v>15840</v>
       </c>
       <c r="C278">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278">
-        <v>65.2</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F278">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="2">
-        <v>43118</v>
+        <v>43122</v>
       </c>
       <c r="B279">
-        <v>6990</v>
+        <v>10080</v>
       </c>
       <c r="C279">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E279">
-        <v>63.1</v>
+        <v>55.3</v>
       </c>
       <c r="F279">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="2">
-        <v>43122</v>
+        <v>43125</v>
       </c>
       <c r="B280">
-        <v>6990</v>
+        <v>15840</v>
       </c>
       <c r="C280">
-        <v>1.2</v>
+        <v>-14.2</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E280">
-        <v>57.9</v>
+        <v>37.4</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="2">
-        <v>43125</v>
+        <v>43132</v>
       </c>
       <c r="B281">
-        <v>6990</v>
+        <v>14280</v>
       </c>
       <c r="C281">
-        <v>-13.4</v>
+        <v>-3.8</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <v>36.9</v>
+        <v>46.4</v>
       </c>
       <c r="F281">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2">
-        <v>43132</v>
+        <v>43136</v>
       </c>
       <c r="B282">
-        <v>6990</v>
+        <v>9900</v>
       </c>
       <c r="C282">
-        <v>-3</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282">
-        <v>45.8</v>
+        <v>40.2</v>
       </c>
       <c r="F282">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2">
-        <v>43136</v>
+        <v>43139</v>
       </c>
       <c r="B283">
-        <v>4880</v>
+        <v>10080</v>
       </c>
       <c r="C283">
-        <v>-8.300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="D283">
         <v>0</v>
       </c>
       <c r="E283">
-        <v>39.5</v>
+        <v>46.6</v>
       </c>
       <c r="F283">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="2">
-        <v>43139</v>
+        <v>43143</v>
       </c>
       <c r="B284">
-        <v>6990</v>
+        <v>9000</v>
       </c>
       <c r="C284">
-        <v>-3.2</v>
+        <v>-5.8</v>
       </c>
       <c r="D284">
         <v>0</v>
       </c>
       <c r="E284">
-        <v>46.1</v>
+        <v>42</v>
       </c>
       <c r="F284">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="2">
-        <v>43143</v>
+        <v>43150</v>
       </c>
       <c r="B285">
-        <v>5290</v>
+        <v>10080</v>
       </c>
       <c r="C285">
-        <v>-5</v>
+        <v>1.9</v>
       </c>
       <c r="D285">
         <v>0</v>
       </c>
       <c r="E285">
-        <v>41.9</v>
+        <v>50.5</v>
       </c>
       <c r="F285">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="2">
-        <v>43150</v>
+        <v>43153</v>
       </c>
       <c r="B286">
-        <v>4880</v>
+        <v>10080</v>
       </c>
       <c r="C286">
+        <v>1.7</v>
+      </c>
+      <c r="D286">
+        <v>0.5</v>
+      </c>
+      <c r="E286">
+        <v>57.2</v>
+      </c>
+      <c r="F286">
         <v>2.5</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
-        <v>51.1</v>
-      </c>
-      <c r="F286">
-        <v>1.1</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="2">
-        <v>43153</v>
+        <v>43160</v>
       </c>
       <c r="B287">
-        <v>4880</v>
+        <v>10080</v>
       </c>
       <c r="C287">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E287">
-        <v>58.2</v>
+        <v>62.2</v>
       </c>
       <c r="F287">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2">
-        <v>43160</v>
+        <v>43164</v>
       </c>
       <c r="B288">
-        <v>5290</v>
+        <v>10080</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="D288">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E288">
-        <v>63.5</v>
+        <v>64.8</v>
       </c>
       <c r="F288">
-        <v>2.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="2">
-        <v>43164</v>
+        <v>43167</v>
       </c>
       <c r="B289">
-        <v>5290</v>
+        <v>11880</v>
       </c>
       <c r="C289">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="D289">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E289">
-        <v>66.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F289">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="2">
-        <v>43167</v>
+        <v>43171</v>
       </c>
       <c r="B290">
-        <v>5290</v>
+        <v>10080</v>
       </c>
       <c r="C290">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D290">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E290">
-        <v>76.3</v>
+        <v>48</v>
       </c>
       <c r="F290">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="2">
-        <v>43171</v>
+        <v>43174</v>
       </c>
       <c r="B291">
-        <v>3690</v>
+        <v>11880</v>
       </c>
       <c r="C291">
-        <v>8.699999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="E291">
-        <v>54.7</v>
+        <v>87.8</v>
       </c>
       <c r="F291">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="2">
-        <v>43174</v>
+        <v>43178</v>
       </c>
       <c r="B292">
-        <v>3690</v>
+        <v>10080</v>
       </c>
       <c r="C292">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D292">
-        <v>30.5</v>
+        <v>1.5</v>
       </c>
       <c r="E292">
-        <v>88.5</v>
+        <v>68</v>
       </c>
       <c r="F292">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="2">
-        <v>43178</v>
+        <v>43181</v>
       </c>
       <c r="B293">
-        <v>3690</v>
+        <v>17100</v>
       </c>
       <c r="C293">
-        <v>8.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>67.8</v>
+        <v>62.1</v>
       </c>
       <c r="F293">
-        <v>2.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="2">
-        <v>43181</v>
+        <v>43185</v>
       </c>
       <c r="B294">
-        <v>3690</v>
+        <v>10080</v>
       </c>
       <c r="C294">
-        <v>5.4</v>
+        <v>10.3</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>62.7</v>
+        <v>66.7</v>
       </c>
       <c r="F294">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="2">
-        <v>43185</v>
+        <v>43192</v>
       </c>
       <c r="B295">
-        <v>3690</v>
+        <v>9480</v>
       </c>
       <c r="C295">
-        <v>10.8</v>
+        <v>18.2</v>
       </c>
       <c r="D295">
         <v>0</v>
       </c>
       <c r="E295">
-        <v>68.2</v>
+        <v>67.2</v>
       </c>
       <c r="F295">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="2">
-        <v>43192</v>
+        <v>43195</v>
       </c>
       <c r="B296">
-        <v>3690</v>
+        <v>9480</v>
       </c>
       <c r="C296">
-        <v>18.6</v>
+        <v>7.8</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E296">
-        <v>68.09999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F296">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="2">
-        <v>43195</v>
+        <v>43199</v>
       </c>
       <c r="B297">
-        <v>3690</v>
+        <v>9660</v>
       </c>
       <c r="C297">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="D297">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="E297">
-        <v>84.5</v>
+        <v>59.9</v>
       </c>
       <c r="F297">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="2">
-        <v>43199</v>
+        <v>43202</v>
       </c>
       <c r="B298">
-        <v>4290</v>
+        <v>11880</v>
       </c>
       <c r="C298">
-        <v>8.5</v>
+        <v>13.1</v>
       </c>
       <c r="D298">
         <v>0</v>
       </c>
       <c r="E298">
-        <v>59.3</v>
+        <v>36.2</v>
       </c>
       <c r="F298">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="2">
-        <v>43202</v>
+        <v>43206</v>
       </c>
       <c r="B299">
-        <v>3690</v>
+        <v>10680</v>
       </c>
       <c r="C299">
-        <v>13.7</v>
+        <v>11.5</v>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>36.9</v>
+        <v>46.4</v>
       </c>
       <c r="F299">
         <v>1.7</v>
@@ -6365,139 +6365,139 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="2">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="B300">
-        <v>4590</v>
+        <v>15720</v>
       </c>
       <c r="C300">
-        <v>12.4</v>
+        <v>13.7</v>
       </c>
       <c r="D300">
         <v>0</v>
       </c>
       <c r="E300">
-        <v>44.3</v>
+        <v>41.1</v>
       </c>
       <c r="F300">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="2">
-        <v>43209</v>
+        <v>43213</v>
       </c>
       <c r="B301">
-        <v>4590</v>
+        <v>10680</v>
       </c>
       <c r="C301">
-        <v>14.4</v>
+        <v>10</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="E301">
-        <v>40.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F301">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="2">
-        <v>43213</v>
+        <v>43216</v>
       </c>
       <c r="B302">
-        <v>4390</v>
+        <v>10680</v>
       </c>
       <c r="C302">
-        <v>10.3</v>
+        <v>15</v>
       </c>
       <c r="D302">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E302">
-        <v>88.3</v>
+        <v>52.6</v>
       </c>
       <c r="F302">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="2">
-        <v>43216</v>
+        <v>43223</v>
       </c>
       <c r="B303">
-        <v>4590</v>
+        <v>10080</v>
       </c>
       <c r="C303">
-        <v>15.8</v>
+        <v>11.6</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E303">
-        <v>52.8</v>
+        <v>62.8</v>
       </c>
       <c r="F303">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="2">
-        <v>43223</v>
+        <v>43230</v>
       </c>
       <c r="B304">
-        <v>4590</v>
+        <v>10080</v>
       </c>
       <c r="C304">
-        <v>12.8</v>
+        <v>14.9</v>
       </c>
       <c r="D304">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E304">
-        <v>59.7</v>
+        <v>68.8</v>
       </c>
       <c r="F304">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="2">
-        <v>43230</v>
+        <v>43234</v>
       </c>
       <c r="B305">
-        <v>4590</v>
+        <v>10680</v>
       </c>
       <c r="C305">
-        <v>16.1</v>
+        <v>17.6</v>
       </c>
       <c r="D305">
         <v>0</v>
       </c>
       <c r="E305">
-        <v>66.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F305">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="2">
-        <v>43234</v>
+        <v>43237</v>
       </c>
       <c r="B306">
-        <v>3990</v>
+        <v>10080</v>
       </c>
       <c r="C306">
-        <v>18.1</v>
+        <v>20.7</v>
       </c>
       <c r="D306">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E306">
-        <v>72.8</v>
+        <v>93</v>
       </c>
       <c r="F306">
         <v>1.3</v>
@@ -6505,147 +6505,147 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="2">
-        <v>43237</v>
+        <v>43241</v>
       </c>
       <c r="B307">
-        <v>4790</v>
+        <v>10080</v>
       </c>
       <c r="C307">
-        <v>21.3</v>
+        <v>18</v>
       </c>
       <c r="D307">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E307">
-        <v>93.40000000000001</v>
+        <v>43.2</v>
       </c>
       <c r="F307">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="2">
-        <v>43241</v>
+        <v>43244</v>
       </c>
       <c r="B308">
-        <v>4790</v>
+        <v>10080</v>
       </c>
       <c r="C308">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="D308">
         <v>0</v>
       </c>
       <c r="E308">
-        <v>42.7</v>
+        <v>47.1</v>
       </c>
       <c r="F308">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="2">
-        <v>43244</v>
+        <v>43248</v>
       </c>
       <c r="B309">
-        <v>4790</v>
+        <v>10680</v>
       </c>
       <c r="C309">
-        <v>19</v>
+        <v>22.1</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>49.6</v>
+        <v>53.8</v>
       </c>
       <c r="F309">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="2">
-        <v>43248</v>
+        <v>43255</v>
       </c>
       <c r="B310">
-        <v>4790</v>
-      </c>
-      <c r="C310">
-        <v>22.8</v>
-      </c>
-      <c r="D310">
-        <v>0</v>
-      </c>
-      <c r="E310">
-        <v>52.2</v>
-      </c>
-      <c r="F310">
-        <v>0.9</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="2">
-        <v>43255</v>
+        <v>43258</v>
       </c>
       <c r="B311">
-        <v>3990</v>
+        <v>13020</v>
+      </c>
+      <c r="C311">
+        <v>21.5</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>72</v>
+      </c>
+      <c r="F311">
+        <v>1.8</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2">
-        <v>43258</v>
+        <v>43262</v>
       </c>
       <c r="B312">
-        <v>4790</v>
+        <v>10080</v>
       </c>
       <c r="C312">
-        <v>22.4</v>
+        <v>20.1</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E312">
-        <v>69.8</v>
+        <v>66</v>
       </c>
       <c r="F312">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="2">
-        <v>43262</v>
+        <v>43265</v>
       </c>
       <c r="B313">
-        <v>4790</v>
+        <v>13020</v>
       </c>
       <c r="C313">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="D313">
-        <v>7</v>
+        <v>28.5</v>
       </c>
       <c r="E313">
-        <v>66.59999999999999</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F313">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="2">
-        <v>43265</v>
+        <v>43269</v>
       </c>
       <c r="B314">
-        <v>4790</v>
+        <v>10680</v>
       </c>
       <c r="C314">
-        <v>22.3</v>
+        <v>24.5</v>
       </c>
       <c r="D314">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E314">
-        <v>70.90000000000001</v>
+        <v>58.5</v>
       </c>
       <c r="F314">
         <v>1.5</v>
@@ -6653,39 +6653,39 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="2">
-        <v>43269</v>
+        <v>43272</v>
       </c>
       <c r="B315">
-        <v>3980</v>
+        <v>10680</v>
       </c>
       <c r="C315">
-        <v>25.6</v>
+        <v>23</v>
       </c>
       <c r="D315">
         <v>0</v>
       </c>
       <c r="E315">
-        <v>56.4</v>
+        <v>64.5</v>
       </c>
       <c r="F315">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="2">
-        <v>43272</v>
+        <v>43276</v>
       </c>
       <c r="B316">
-        <v>4790</v>
+        <v>11880</v>
       </c>
       <c r="C316">
-        <v>24</v>
+        <v>26.6</v>
       </c>
       <c r="D316">
         <v>0</v>
       </c>
       <c r="E316">
-        <v>62.3</v>
+        <v>61</v>
       </c>
       <c r="F316">
         <v>1.4</v>
@@ -6693,179 +6693,179 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="2">
-        <v>43276</v>
+        <v>43283</v>
       </c>
       <c r="B317">
-        <v>4790</v>
+        <v>11940</v>
       </c>
       <c r="C317">
-        <v>27.3</v>
+        <v>22.7</v>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="E317">
-        <v>61.1</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="2">
-        <v>43283</v>
+        <v>43286</v>
       </c>
       <c r="B318">
-        <v>4790</v>
+        <v>11880</v>
       </c>
       <c r="C318">
-        <v>23.4</v>
+        <v>25.4</v>
       </c>
       <c r="D318">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E318">
-        <v>89.7</v>
+        <v>74</v>
       </c>
       <c r="F318">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="2">
-        <v>43286</v>
+        <v>43290</v>
       </c>
       <c r="B319">
-        <v>4790</v>
+        <v>13680</v>
       </c>
       <c r="C319">
-        <v>26.1</v>
+        <v>20.9</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="E319">
-        <v>72.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F319">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="2">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="B320">
-        <v>4790</v>
+        <v>13680</v>
       </c>
       <c r="C320">
-        <v>21.6</v>
+        <v>26.5</v>
       </c>
       <c r="D320">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="E320">
-        <v>78.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="F320">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="2">
-        <v>43293</v>
+        <v>43297</v>
       </c>
       <c r="B321">
-        <v>4790</v>
+        <v>13680</v>
       </c>
       <c r="C321">
-        <v>27.5</v>
+        <v>28.4</v>
       </c>
       <c r="D321">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E321">
-        <v>79</v>
+        <v>66.2</v>
       </c>
       <c r="F321">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2">
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="B322">
-        <v>4790</v>
+        <v>13680</v>
       </c>
       <c r="C322">
-        <v>29.5</v>
+        <v>27.9</v>
       </c>
       <c r="D322">
         <v>0</v>
       </c>
       <c r="E322">
-        <v>64.5</v>
+        <v>67.2</v>
       </c>
       <c r="F322">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="2">
-        <v>43300</v>
+        <v>43307</v>
       </c>
       <c r="B323">
-        <v>4790</v>
+        <v>13680</v>
       </c>
       <c r="C323">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="D323">
         <v>0</v>
       </c>
       <c r="E323">
-        <v>67.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F323">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="2">
-        <v>43307</v>
+        <v>43314</v>
       </c>
       <c r="B324">
-        <v>4790</v>
+        <v>14880</v>
       </c>
       <c r="C324">
-        <v>30.5</v>
+        <v>33.4</v>
       </c>
       <c r="D324">
         <v>0</v>
       </c>
       <c r="E324">
-        <v>69.2</v>
+        <v>58.9</v>
       </c>
       <c r="F324">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="2">
-        <v>43314</v>
+        <v>43318</v>
       </c>
       <c r="B325">
-        <v>4980</v>
+        <v>11880</v>
       </c>
       <c r="C325">
-        <v>34.2</v>
+        <v>30.4</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E325">
-        <v>55.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F325">
         <v>1.6</v>
@@ -6873,102 +6873,82 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="2">
-        <v>43318</v>
+        <v>43321</v>
       </c>
       <c r="B326">
-        <v>4980</v>
+        <v>14880</v>
       </c>
       <c r="C326">
-        <v>31.2</v>
+        <v>28.5</v>
       </c>
       <c r="D326">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E326">
-        <v>70.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="F326">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="2">
-        <v>43321</v>
+        <v>43325</v>
       </c>
       <c r="B327">
-        <v>4980</v>
+        <v>13020</v>
       </c>
       <c r="C327">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E327">
-        <v>76.8</v>
+        <v>69.5</v>
       </c>
       <c r="F327">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="2">
-        <v>43325</v>
+        <v>43328</v>
       </c>
       <c r="B328">
-        <v>5580</v>
+        <v>14880</v>
       </c>
       <c r="C328">
-        <v>31.6</v>
+        <v>29.7</v>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328">
-        <v>68.09999999999999</v>
+        <v>56.4</v>
       </c>
       <c r="F328">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="2">
-        <v>43328</v>
+        <v>43335</v>
       </c>
       <c r="B329">
-        <v>5580</v>
+        <v>14880</v>
       </c>
       <c r="C329">
-        <v>30.8</v>
+        <v>30.1</v>
       </c>
       <c r="D329">
         <v>0</v>
       </c>
       <c r="E329">
-        <v>56.2</v>
+        <v>58.4</v>
       </c>
       <c r="F329">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330" s="2">
-        <v>43335</v>
-      </c>
-      <c r="B330">
-        <v>6180</v>
-      </c>
-      <c r="C330">
-        <v>30.6</v>
-      </c>
-      <c r="D330">
-        <v>0</v>
-      </c>
-      <c r="E330">
-        <v>59.7</v>
-      </c>
-      <c r="F330">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
